--- a/biology/Botanique/Déforestation_en_Thaïlande/Déforestation_en_Thaïlande.xlsx
+++ b/biology/Botanique/Déforestation_en_Thaïlande/Déforestation_en_Thaïlande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Tha%C3%AFlande</t>
+          <t>Déforestation_en_Thaïlande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La déforestation en Thaïlande est parmi les plus intenses des pays asiatiques. Entre 1945 et 1975, les forêts sont passées de 61 à 34 % de la surface du pays. Dans les 11 années qui ont suivi, la Thaïlande a perdu 28 % des forêts restantes. Durant cette période, la perte a été de plus de 3 % par an. Entre 1975 et 2009, les forêts ont diminué au total de 43 %[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La déforestation en Thaïlande est parmi les plus intenses des pays asiatiques. Entre 1945 et 1975, les forêts sont passées de 61 à 34 % de la surface du pays. Dans les 11 années qui ont suivi, la Thaïlande a perdu 28 % des forêts restantes. Durant cette période, la perte a été de plus de 3 % par an. Entre 1975 et 2009, les forêts ont diminué au total de 43 %.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Tha%C3%AFlande</t>
+          <t>Déforestation_en_Thaïlande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Causes et conséquences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les causes citées fréquemment figurent la culture sur brûlis, mais aussi la corruption qui laisse agir les trafiquants[2] de bois précieux[3].
-En réalité, c'est l'expansion agricole qui est la cause principale, et de loin, de la déforestation[4].
-Par contre la déforestation n'aurait qu'un effet relativement limité sur les inondations[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les causes citées fréquemment figurent la culture sur brûlis, mais aussi la corruption qui laisse agir les trafiquants de bois précieux.
+En réalité, c'est l'expansion agricole qui est la cause principale, et de loin, de la déforestation.
+Par contre la déforestation n'aurait qu'un effet relativement limité sur les inondations.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9forestation_en_Tha%C3%AFlande</t>
+          <t>Déforestation_en_Thaïlande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1989, une loi contre la déforestation interdisant d'abattre des arbres sur tout le territoire (sauf dans les plantations) a été votée en Thaïlande[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1989, une loi contre la déforestation interdisant d'abattre des arbres sur tout le territoire (sauf dans les plantations) a été votée en Thaïlande,.
 </t>
         </is>
       </c>
